--- a/data/trans_camb/P36B13_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P36B13_R-Estudios-trans_camb.xlsx
@@ -570,7 +570,7 @@
         <v>-1.993773628995281</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-2.132628791666851</v>
+        <v>-2.132628791666852</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.039831142272214</v>
+        <v>-5.059132482770146</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.571230006364686</v>
+        <v>-3.689099550615588</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.678693319223172</v>
+        <v>-3.638520932377032</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.076869043708367</v>
+        <v>1.047346943975405</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.3156401461278065</v>
+        <v>-0.2923978430520884</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.3504299941805201</v>
+        <v>-0.2504352020943193</v>
       </c>
     </row>
     <row r="7">
@@ -621,7 +621,7 @@
         <v>-0.4326033654006668</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.3239868786339645</v>
+        <v>-0.3239868786339647</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4824197694479004</v>
+        <v>-0.4759080914047269</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6484801364219962</v>
+        <v>-0.6623157648044538</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5094036304769434</v>
+        <v>-0.5098641928180313</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1590141928791178</v>
+        <v>0.1457582685335813</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.07475413953188929</v>
+        <v>-0.06555644073148224</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.04449709098231695</v>
+        <v>-0.04338753038477388</v>
       </c>
     </row>
     <row r="10">
@@ -676,7 +676,7 @@
         <v>-5.112831992764851</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-5.524160657181755</v>
+        <v>-5.524160657181751</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.468511518728171</v>
+        <v>-8.068839722664825</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.630243746547569</v>
+        <v>-6.672349171749817</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.962389823884148</v>
+        <v>-6.824932467329023</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-3.845748304411504</v>
+        <v>-3.727292436957626</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-3.456484459654983</v>
+        <v>-3.52708404256513</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-4.255022567885828</v>
+        <v>-4.171612984935699</v>
       </c>
     </row>
     <row r="13">
@@ -727,7 +727,7 @@
         <v>-0.5302405397317972</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.4571822008836211</v>
+        <v>-0.4571822008836207</v>
       </c>
     </row>
     <row r="14">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5327573165271349</v>
+        <v>-0.5140121733957627</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6285870849682897</v>
+        <v>-0.6309587080654874</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5398353573950421</v>
+        <v>-0.5405981205176347</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.2861098570602791</v>
+        <v>-0.2676572632516251</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.3903086363894926</v>
+        <v>-0.401515482138696</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.3683782886983478</v>
+        <v>-0.3651960958765299</v>
       </c>
     </row>
     <row r="16">
@@ -779,7 +779,7 @@
         <v>-3.890250025249528</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-3.868933508011951</v>
+        <v>-3.86893350801195</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>-3.886628360904405</v>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.951074147181216</v>
+        <v>-6.727913031446297</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.499567529969284</v>
+        <v>-6.59712601549766</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.962699741825663</v>
+        <v>-5.855032481932476</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.6272410446613843</v>
+        <v>-0.8097385248021921</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-1.373380863031613</v>
+        <v>-1.314942431357449</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-1.887665610243286</v>
+        <v>-1.84637834920759</v>
       </c>
     </row>
     <row r="19">
@@ -833,7 +833,7 @@
         <v>-0.5396792177029717</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.4993473626988339</v>
+        <v>-0.499347362698834</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6793216693706435</v>
+        <v>-0.670187408220603</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7379279101973243</v>
+        <v>-0.7388045666932467</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6534938229622119</v>
+        <v>-0.6470958893764207</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.06904364947420544</v>
+        <v>-0.07550051337753526</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.2157460663256824</v>
+        <v>-0.203347377445662</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.2735566192512947</v>
+        <v>-0.259879654297252</v>
       </c>
     </row>
     <row r="22">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>-4.804669079272871</v>
+        <v>-4.804669079272873</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>-3.982708219115189</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-4.395233815752372</v>
+        <v>-4.395233815752371</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.408045390006486</v>
+        <v>-6.365253442790696</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.070293035063806</v>
+        <v>-5.06762568179082</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.399725578096748</v>
+        <v>-5.424936901070859</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-3.212509065318066</v>
+        <v>-3.293304653653145</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-2.860200877964385</v>
+        <v>-2.872953077726942</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-3.505632630734909</v>
+        <v>-3.516420934082717</v>
       </c>
     </row>
     <row r="25">
@@ -933,13 +933,13 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>-0.3912308118079779</v>
+        <v>-0.3912308118079781</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>-0.5075522636915387</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.4388684249664181</v>
+        <v>-0.4388684249664179</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4951439567532288</v>
+        <v>-0.4900923934420314</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5943717572994435</v>
+        <v>-0.5963594193510589</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5087326635456902</v>
+        <v>-0.5076616065058365</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.276247216192073</v>
+        <v>-0.2796441594759909</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.3920267464846529</v>
+        <v>-0.39401205610461</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.3599135573056308</v>
+        <v>-0.3638827582739844</v>
       </c>
     </row>
     <row r="28">
